--- a/data/hydrology station.xlsx
+++ b/data/hydrology station.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\My Drive\PYTHON_CODE\Hydro-Met network\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B2611-5E7B-4548-95D3-4B43DE51F967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B798AA-844A-4283-BDD1-7676A241C37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
   <si>
-    <t>station_name</t>
-  </si>
-  <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tân Châu
 </t>
   </si>
@@ -1651,6 +1642,15 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>LON</t>
+  </si>
+  <si>
+    <t>STATIONS</t>
   </si>
 </sst>
 </file>
@@ -2012,23 +2012,23 @@
   <dimension ref="A1:D537"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" t="s">
         <v>539</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>537</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>10.800556</v>
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>10.275</v>
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <v>10.705278</v>
@@ -2078,7 +2078,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <v>10.052778</v>
@@ -2092,7 +2092,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <v>19.748180000000001</v>
@@ -2106,7 +2106,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <v>17.987449999999999</v>
@@ -2120,7 +2120,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>18.798249999999999</v>
@@ -2134,7 +2134,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <v>15.38935</v>
@@ -2148,7 +2148,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>17.15981</v>
@@ -2162,7 +2162,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <v>20.670663999999999</v>
@@ -2176,7 +2176,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>20.983333999999999</v>
@@ -2190,7 +2190,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <v>20.13017</v>
@@ -2204,7 +2204,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>16.130915000000002</v>
@@ -2218,7 +2218,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2">
         <v>10.525021000000001</v>
@@ -2232,7 +2232,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" s="2">
         <v>11.429197</v>
@@ -2246,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>9.2900399999999994</v>
@@ -2260,7 +2260,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
         <v>9.8855599999999999</v>
@@ -2274,7 +2274,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
         <v>9.7346459999999997</v>
@@ -2288,7 +2288,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
         <v>10.705219</v>
@@ -2302,7 +2302,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
         <v>10.392714</v>
@@ -2316,7 +2316,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
         <v>10.578645</v>
@@ -2330,7 +2330,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
         <v>10.436501</v>
@@ -2344,7 +2344,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
         <v>10.607336999999999</v>
@@ -2358,7 +2358,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
         <v>10.052966</v>
@@ -2372,7 +2372,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2">
         <v>9.8119209999999999</v>
@@ -2386,7 +2386,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
         <v>9.7755089999999996</v>
@@ -2400,7 +2400,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C28" s="2">
         <v>9.5283529999999992</v>
@@ -2414,7 +2414,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2">
         <v>10.096621000000001</v>
@@ -2428,7 +2428,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2">
         <v>10.012285</v>
@@ -2442,7 +2442,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2">
         <v>9.8647880000000008</v>
@@ -2456,7 +2456,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2">
         <v>9.1777800000000003</v>
@@ -2470,7 +2470,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2">
         <v>9.0411870000000008</v>
@@ -2484,7 +2484,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2">
         <v>9.0314840000000007</v>
@@ -2498,7 +2498,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2">
         <v>8.7629839999999994</v>
@@ -2512,7 +2512,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
         <v>9.4350539999999992</v>
@@ -2526,7 +2526,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2">
         <v>10.279510999999999</v>
@@ -2540,7 +2540,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2">
         <v>10.222408</v>
@@ -2554,7 +2554,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2">
         <v>9.9802920000000004</v>
@@ -2568,7 +2568,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2">
         <v>14.658334</v>
@@ -2582,7 +2582,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2">
         <v>14.3475</v>
@@ -2596,7 +2596,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <v>14.75</v>
@@ -2610,7 +2610,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2">
         <v>14.469722000000001</v>
@@ -2624,7 +2624,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2">
         <v>12.897778000000001</v>
@@ -2638,7 +2638,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2">
         <v>12.95</v>
@@ -2652,7 +2652,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2">
         <v>12.511111</v>
@@ -2666,7 +2666,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2">
         <v>12.318889</v>
@@ -2680,7 +2680,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2">
         <v>12.771262999999999</v>
@@ -2694,7 +2694,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2">
         <v>10.659247000000001</v>
@@ -2708,7 +2708,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2">
         <v>10.416501</v>
@@ -2722,7 +2722,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2">
         <v>10.35192</v>
@@ -2736,7 +2736,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2">
         <v>10.290341</v>
@@ -2750,7 +2750,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2">
         <v>10.27444</v>
@@ -2764,7 +2764,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2">
         <v>10.400081</v>
@@ -2778,7 +2778,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2">
         <v>10.408369</v>
@@ -2792,7 +2792,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2">
         <v>10.20417</v>
@@ -2806,7 +2806,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2">
         <v>10.275</v>
@@ -2820,7 +2820,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2">
         <v>9.9752799999999997</v>
@@ -2834,7 +2834,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2">
         <v>10.816667000000001</v>
@@ -2848,7 +2848,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="2">
         <v>10.430555</v>
@@ -2862,7 +2862,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="2">
         <v>11.542215000000001</v>
@@ -2876,7 +2876,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2">
         <v>11.081307000000001</v>
@@ -2890,7 +2890,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C63" s="2">
         <v>10.781072</v>
@@ -2904,7 +2904,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C64" s="2">
         <v>10.551011000000001</v>
@@ -2918,7 +2918,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C65" s="2">
         <v>10.638578000000001</v>
@@ -2932,7 +2932,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C66" s="2">
         <v>10.658025</v>
@@ -2946,7 +2946,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2">
         <v>10.6</v>
@@ -2960,7 +2960,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C68" s="2">
         <v>17.90305</v>
@@ -2974,7 +2974,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2">
         <v>17.485299999999999</v>
@@ -2988,7 +2988,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C70" s="2">
         <v>17.4727</v>
@@ -3002,7 +3002,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C71" s="2">
         <v>17.070599999999999</v>
@@ -3016,7 +3016,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C72" s="2">
         <v>17.130700000000001</v>
@@ -3030,7 +3030,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C73" s="2">
         <v>16.956379999999999</v>
@@ -3044,7 +3044,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2">
         <v>17.422699999999999</v>
@@ -3058,7 +3058,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2">
         <v>16.4924</v>
@@ -3072,7 +3072,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2">
         <v>16.751660000000001</v>
@@ -3086,7 +3086,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C77" s="2">
         <v>16.88833</v>
@@ -3100,7 +3100,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2">
         <v>16.129159999999999</v>
@@ -3114,7 +3114,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2">
         <v>16.010829999999999</v>
@@ -3128,7 +3128,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2">
         <v>15.76666</v>
@@ -3142,7 +3142,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2">
         <v>15.702500000000001</v>
@@ -3156,7 +3156,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2">
         <v>15.503</v>
@@ -3170,7 +3170,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2">
         <v>15.5129</v>
@@ -3184,7 +3184,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2">
         <v>15.047499999999999</v>
@@ -3198,7 +3198,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C85" s="2">
         <v>14.98611</v>
@@ -3212,7 +3212,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2">
         <v>14.577870000000001</v>
@@ -3226,7 +3226,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2">
         <v>14.428889</v>
@@ -3240,7 +3240,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2">
         <v>13.90399</v>
@@ -3254,7 +3254,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2">
         <v>14.590999999999999</v>
@@ -3268,7 +3268,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2">
         <v>14.336974</v>
@@ -3282,7 +3282,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C91" s="2">
         <v>13.472144</v>
@@ -3296,7 +3296,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C92" s="2">
         <v>13.536068999999999</v>
@@ -3310,7 +3310,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C93" s="2">
         <v>13.401300000000001</v>
@@ -3324,7 +3324,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2">
         <v>13.361179999999999</v>
@@ -3338,7 +3338,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C95" s="2">
         <v>13.042859999999999</v>
@@ -3352,7 +3352,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C96" s="2">
         <v>13.066599999999999</v>
@@ -3366,7 +3366,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C97" s="2">
         <v>12.934303</v>
@@ -3380,7 +3380,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C98" s="2">
         <v>12.497366</v>
@@ -3394,7 +3394,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C99" s="2">
         <v>12.280815</v>
@@ -3408,7 +3408,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C100" s="2">
         <v>11.712</v>
@@ -3422,7 +3422,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C101" s="2">
         <v>11.553611</v>
@@ -3436,7 +3436,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2">
         <v>11.200569</v>
@@ -3450,7 +3450,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C103" s="2">
         <v>11.13447</v>
@@ -3464,7 +3464,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2">
         <v>10.926389</v>
@@ -3478,7 +3478,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2">
         <v>10.361190000000001</v>
@@ -3492,7 +3492,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C106" s="2">
         <v>11.535</v>
@@ -3506,7 +3506,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C107" s="2">
         <v>11.651944</v>
@@ -3520,7 +3520,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C108" s="2">
         <v>11.245032</v>
@@ -3534,7 +3534,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2">
         <v>10.948950999999999</v>
@@ -3548,7 +3548,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2">
         <v>11.27407</v>
@@ -3562,7 +3562,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C111" s="2">
         <v>11.775833</v>
@@ -3576,7 +3576,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C112" s="2">
         <v>11.376265999999999</v>
@@ -3590,7 +3590,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C113" s="2">
         <v>11.098940000000001</v>
@@ -3604,7 +3604,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C114" s="2">
         <v>10.940386999999999</v>
@@ -3618,7 +3618,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C115" s="2">
         <v>11.16386</v>
@@ -3632,7 +3632,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C116" s="2">
         <v>10.773987999999999</v>
@@ -3646,7 +3646,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C117" s="2">
         <v>10.65986</v>
@@ -3660,7 +3660,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C118" s="2">
         <v>14.033611000000001</v>
@@ -3674,7 +3674,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C119" s="2">
         <v>13.958633000000001</v>
@@ -3688,7 +3688,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C120" s="2">
         <v>13.399167</v>
@@ -3702,7 +3702,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C121" s="2">
         <v>11.999444</v>
@@ -3716,7 +3716,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C122" s="2">
         <v>19.556667000000001</v>
@@ -3730,7 +3730,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C123" s="2">
         <v>19.206666999999999</v>
@@ -3744,7 +3744,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C124" s="2">
         <v>19.404444000000002</v>
@@ -3758,7 +3758,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C125" s="2">
         <v>19.265556</v>
@@ -3772,7 +3772,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C126" s="2">
         <v>18.98611</v>
@@ -3786,7 +3786,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C127" s="2">
         <v>18.913333999999999</v>
@@ -3800,7 +3800,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C128" s="2">
         <v>18.069445000000002</v>
@@ -3814,7 +3814,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C129" s="2">
         <v>18.696387999999999</v>
@@ -3828,7 +3828,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C130" s="2">
         <v>18.581388</v>
@@ -3842,7 +3842,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C131" s="2">
         <v>19.064722</v>
@@ -3856,7 +3856,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C132" s="2">
         <v>18.758333</v>
@@ -3870,7 +3870,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C133" s="2">
         <v>18.23</v>
@@ -3884,7 +3884,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C134" s="2">
         <v>18.385833999999999</v>
@@ -3898,7 +3898,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C135" s="2">
         <v>18.50639</v>
@@ -3912,7 +3912,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C136" s="2">
         <v>18.583334000000001</v>
@@ -3926,7 +3926,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C137" s="2">
         <v>18.374445000000001</v>
@@ -3940,7 +3940,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C138" s="2">
         <v>18.261109999999999</v>
@@ -3954,7 +3954,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C139" s="2">
         <v>20.976130000000001</v>
@@ -3968,7 +3968,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C140" s="2">
         <v>20.301945</v>
@@ -3982,7 +3982,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C141" s="2">
         <v>20.526667</v>
@@ -3996,7 +3996,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C142" s="2">
         <v>20.391110999999999</v>
@@ -4010,7 +4010,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C143" s="2">
         <v>20.209444000000001</v>
@@ -4024,7 +4024,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C144" s="2">
         <v>20.021667000000001</v>
@@ -4038,7 +4038,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C145" s="2">
         <v>19.88139</v>
@@ -4052,7 +4052,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C146" s="2">
         <v>20.151667</v>
@@ -4066,7 +4066,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C147" s="2">
         <v>19.875554999999999</v>
@@ -4080,7 +4080,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C148" s="2">
         <v>19.898890000000002</v>
@@ -4094,7 +4094,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C149" s="2">
         <v>19.916944999999998</v>
@@ -4108,7 +4108,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C150" s="2">
         <v>19.769166999999999</v>
@@ -4122,7 +4122,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C151" s="2">
         <v>19.980556</v>
@@ -4136,7 +4136,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C152" s="2">
         <v>19.981945</v>
@@ -4150,7 +4150,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C153" s="2">
         <v>19.630832999999999</v>
@@ -4164,7 +4164,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C154" s="2">
         <v>19.605277999999998</v>
@@ -4178,7 +4178,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C155" s="2">
         <v>20.359166999999999</v>
@@ -4192,7 +4192,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C156" s="2">
         <v>21.266999999999999</v>
@@ -4206,7 +4206,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C157" s="2">
         <v>22.586110999999999</v>
@@ -4220,7 +4220,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C158" s="2">
         <v>22.073080000000001</v>
@@ -4234,7 +4234,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C159" s="2">
         <v>22.252749999999999</v>
@@ -4248,7 +4248,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C160" s="2">
         <v>21.283332999999999</v>
@@ -4262,7 +4262,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C161" s="2">
         <v>21.711804999999998</v>
@@ -4276,7 +4276,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C162" s="2">
         <v>22.4</v>
@@ -4290,7 +4290,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C163" s="2">
         <v>21.44857</v>
@@ -4304,7 +4304,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C164" s="2">
         <v>21.059137</v>
@@ -4318,7 +4318,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C165" s="2">
         <v>22.468889999999998</v>
@@ -4332,7 +4332,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C166" s="2">
         <v>20.851063</v>
@@ -4346,7 +4346,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C167" s="2">
         <v>20.513659000000001</v>
@@ -4360,7 +4360,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C168" s="2">
         <v>21.234331000000001</v>
@@ -4374,7 +4374,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C169" s="2">
         <v>20.805627999999999</v>
@@ -4388,7 +4388,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C170" s="2">
         <v>22.553888000000001</v>
@@ -4402,7 +4402,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C171" s="2">
         <v>22.172777</v>
@@ -4416,7 +4416,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C172" s="2">
         <v>22.166665999999999</v>
@@ -4430,7 +4430,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C173" s="2">
         <v>22.136666999999999</v>
@@ -4444,7 +4444,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C174" s="2">
         <v>21.85</v>
@@ -4458,7 +4458,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C175" s="2">
         <v>21.783642</v>
@@ -4472,7 +4472,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C176" s="2">
         <v>21.932221999999999</v>
@@ -4486,7 +4486,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C177" s="2">
         <v>21.840278999999999</v>
@@ -4500,7 +4500,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C178" s="2">
         <v>21.7</v>
@@ -4514,7 +4514,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C179" s="2">
         <v>21.713332999999999</v>
@@ -4528,7 +4528,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C180" s="2">
         <v>22.828333000000001</v>
@@ -4542,7 +4542,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C181" s="2">
         <v>22.818843999999999</v>
@@ -4556,7 +4556,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C182" s="2">
         <v>22.496110000000002</v>
@@ -4570,7 +4570,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C183" s="2">
         <v>22.266666000000001</v>
@@ -4584,7 +4584,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C184" s="2">
         <v>22.733333999999999</v>
@@ -4598,7 +4598,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C185" s="2">
         <v>21.93</v>
@@ -4612,7 +4612,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C186" s="2">
         <v>22.452223</v>
@@ -4626,7 +4626,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C187" s="2">
         <v>22.05</v>
@@ -4640,7 +4640,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C188" s="2">
         <v>21.866667</v>
@@ -4654,7 +4654,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C189" s="2">
         <v>21.822222</v>
@@ -4668,7 +4668,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C190" s="2">
         <v>22.053888000000001</v>
@@ -4682,7 +4682,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C191" s="2">
         <v>22.142572000000001</v>
@@ -4696,7 +4696,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C192" s="2">
         <v>21.188054999999999</v>
@@ -4710,7 +4710,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C193" s="2">
         <v>21.4</v>
@@ -4724,7 +4724,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C194" s="2">
         <v>21.57</v>
@@ -4738,7 +4738,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C195" s="2">
         <v>21.3</v>
@@ -4752,7 +4752,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C196" s="2">
         <v>21.516666000000001</v>
@@ -4766,7 +4766,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C197" s="2">
         <v>21.153416</v>
@@ -4780,7 +4780,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C198" s="2">
         <v>21.031389999999998</v>
@@ -4794,7 +4794,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C199" s="2">
         <v>21.061779999999999</v>
@@ -4808,7 +4808,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C200" s="2">
         <v>20.648910000000001</v>
@@ -4822,7 +4822,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C201" s="2">
         <v>20.54081</v>
@@ -4836,7 +4836,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C202" s="2">
         <v>20.034243</v>
@@ -4850,7 +4850,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C203" s="2">
         <v>20.353676</v>
@@ -4864,7 +4864,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C204" s="2">
         <v>20.327251</v>
@@ -4878,7 +4878,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C205" s="2">
         <v>20.428115999999999</v>
@@ -4892,7 +4892,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C206" s="2">
         <v>20.320536000000001</v>
@@ -4906,7 +4906,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C207" s="2">
         <v>20.06073</v>
@@ -4920,7 +4920,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C208" s="2">
         <v>20.253329999999998</v>
@@ -4934,7 +4934,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C209" s="2">
         <v>20.649450000000002</v>
@@ -4948,7 +4948,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C210" s="2">
         <v>20.456553</v>
@@ -4962,7 +4962,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C211" s="2">
         <v>20.592445000000001</v>
@@ -4976,7 +4976,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C212" s="2">
         <v>20.517068999999999</v>
@@ -4990,7 +4990,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C213" s="2">
         <v>20.318366999999999</v>
@@ -5004,7 +5004,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C214" s="2">
         <v>22.58</v>
@@ -5018,7 +5018,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C215" s="2">
         <v>22.39</v>
@@ -5032,7 +5032,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C216" s="2">
         <v>21.5044</v>
@@ -5046,7 +5046,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C217" s="2">
         <v>22.06</v>
@@ -5060,7 +5060,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C218" s="2">
         <v>21.116054999999999</v>
@@ -5074,7 +5074,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C219" s="2">
         <v>21.058788</v>
@@ -5088,7 +5088,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C220" s="2">
         <v>21.045116</v>
@@ -5102,7 +5102,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C221" s="2">
         <v>20.942308000000001</v>
@@ -5116,7 +5116,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C222" s="2">
         <v>20.94848</v>
@@ -5130,7 +5130,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C223" s="2">
         <v>20.984608000000001</v>
@@ -5144,7 +5144,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C224" s="2">
         <v>20.870616999999999</v>
@@ -5158,7 +5158,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C225" s="2">
         <v>20.442549</v>
@@ -5172,7 +5172,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C226" s="2">
         <v>21.3124</v>
@@ -5186,7 +5186,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C227" s="2">
         <v>22.087223000000002</v>
@@ -5200,7 +5200,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C228" s="2">
         <v>21.883333</v>
@@ -5214,7 +5214,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C229" s="2">
         <v>21.595555999999998</v>
@@ -5228,7 +5228,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C230" s="2">
         <v>21.372499999999999</v>
@@ -5242,7 +5242,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C231" s="2">
         <v>22.152172</v>
@@ -5256,7 +5256,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C232" s="2">
         <v>21.1708</v>
@@ -5270,7 +5270,7 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C233" s="2">
         <v>21.2654</v>
@@ -5284,7 +5284,7 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C234" s="2">
         <v>21.17</v>
@@ -5298,7 +5298,7 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C235" s="2">
         <v>21.2044</v>
@@ -5312,7 +5312,7 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C236" s="2">
         <v>21.220199999999998</v>
@@ -5326,7 +5326,7 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C237" s="2">
         <v>21.175599999999999</v>
@@ -5340,7 +5340,7 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C238" s="2">
         <v>20.56</v>
@@ -5354,7 +5354,7 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C239" s="2">
         <v>21.290900000000001</v>
@@ -5368,7 +5368,7 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C240" s="2">
         <v>21.0123</v>
@@ -5382,7 +5382,7 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C241" s="2">
         <v>21.032900000000001</v>
@@ -5396,7 +5396,7 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C242" s="2">
         <v>20.46</v>
@@ -5410,7 +5410,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C243" s="2">
         <v>20.41</v>
@@ -5424,7 +5424,7 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C244" s="2">
         <v>20.561</v>
@@ -5438,7 +5438,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C245" s="2">
         <v>20.4315</v>
@@ -5452,7 +5452,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C246" s="2">
         <v>20.440000000000001</v>
@@ -5466,7 +5466,7 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C247" s="2">
         <v>20.490600000000001</v>
@@ -5480,7 +5480,7 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C248" s="2">
         <v>20.666699999999999</v>
@@ -5494,7 +5494,7 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C249" s="2">
         <v>20.5</v>
@@ -5508,7 +5508,7 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C250" s="2">
         <v>20.450800000000001</v>
@@ -5522,7 +5522,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C251" s="2">
         <v>10.773987999999999</v>
@@ -5536,7 +5536,7 @@
         <v>253</v>
       </c>
       <c r="B252" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C252" s="2">
         <v>8.0166660000000007</v>
@@ -5550,7 +5550,7 @@
         <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C253" s="2">
         <v>8.6916799999999999</v>
@@ -5564,7 +5564,7 @@
         <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C254" s="2">
         <v>15.047219999999999</v>
@@ -5578,7 +5578,7 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C255" s="2">
         <v>15.14194</v>
@@ -5592,7 +5592,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C256" s="2">
         <v>14.98611</v>
@@ -5606,7 +5606,7 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C257" s="2">
         <v>15.047219999999999</v>
@@ -5620,7 +5620,7 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C258" s="2">
         <v>15.253056000000001</v>
@@ -5634,7 +5634,7 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C259" s="2">
         <v>15.30611</v>
@@ -5648,7 +5648,7 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C260" s="2">
         <v>14.843059999999999</v>
@@ -5662,7 +5662,7 @@
         <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C261" s="2">
         <v>15.58</v>
@@ -5676,7 +5676,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C262" s="2">
         <v>15.858055999999999</v>
@@ -5690,7 +5690,7 @@
         <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C263" s="2">
         <v>15.928056</v>
@@ -5704,7 +5704,7 @@
         <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C264" s="2">
         <v>15.766667</v>
@@ -5718,7 +5718,7 @@
         <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C265" s="2">
         <v>15.82</v>
@@ -5732,7 +5732,7 @@
         <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C266" s="2">
         <v>15.841666999999999</v>
@@ -5746,7 +5746,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C267" s="2">
         <v>15.881389</v>
@@ -5760,7 +5760,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C268" s="2">
         <v>16.010833999999999</v>
@@ -5774,7 +5774,7 @@
         <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C269" s="2">
         <v>15.569722000000001</v>
@@ -5788,7 +5788,7 @@
         <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C270" s="2">
         <v>15.873889</v>
@@ -5802,7 +5802,7 @@
         <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C271" s="2">
         <v>16.454999999999998</v>
@@ -5816,7 +5816,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C272" s="2">
         <v>16.356387999999999</v>
@@ -5830,7 +5830,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C273" s="2">
         <v>16.527778999999999</v>
@@ -5844,7 +5844,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C274" s="2">
         <v>16.673055999999999</v>
@@ -5858,7 +5858,7 @@
         <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C275" s="2">
         <v>16.314167000000001</v>
@@ -5872,7 +5872,7 @@
         <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C276" s="2">
         <v>16.229168000000001</v>
@@ -5886,7 +5886,7 @@
         <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C277" s="2">
         <v>16.484999999999999</v>
@@ -5900,7 +5900,7 @@
         <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C278" s="2">
         <v>16.657499999999999</v>
@@ -5914,7 +5914,7 @@
         <v>280</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C279" s="2">
         <v>16.73358</v>
@@ -5928,7 +5928,7 @@
         <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C280" s="2">
         <v>16.823329999999999</v>
@@ -5942,7 +5942,7 @@
         <v>282</v>
       </c>
       <c r="B281" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C281" s="2">
         <v>16.88833</v>
@@ -5956,7 +5956,7 @@
         <v>283</v>
       </c>
       <c r="B282" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C282" s="2">
         <v>16.956389999999999</v>
@@ -5970,7 +5970,7 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C283" s="2">
         <v>17.00639</v>
@@ -5984,7 +5984,7 @@
         <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C284" s="2">
         <v>16.614999999999998</v>
@@ -5998,7 +5998,7 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C285" s="2">
         <v>16.790279999999999</v>
@@ -6012,7 +6012,7 @@
         <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C286" s="2">
         <v>17.903054999999998</v>
@@ -6026,7 +6026,7 @@
         <v>288</v>
       </c>
       <c r="B287" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C287" s="2">
         <v>17.814722</v>
@@ -6040,7 +6040,7 @@
         <v>289</v>
       </c>
       <c r="B288" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C288" s="2">
         <v>17.118334000000001</v>
@@ -6054,7 +6054,7 @@
         <v>290</v>
       </c>
       <c r="B289" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C289" s="2">
         <v>17.614999999999998</v>
@@ -6068,7 +6068,7 @@
         <v>291</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C290" s="2">
         <v>17.7075</v>
@@ -6082,7 +6082,7 @@
         <v>292</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C291" s="2">
         <v>17.912779</v>
@@ -6096,7 +6096,7 @@
         <v>293</v>
       </c>
       <c r="B292" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C292" s="2">
         <v>17.218610000000002</v>
@@ -6110,7 +6110,7 @@
         <v>294</v>
       </c>
       <c r="B293" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C293" s="2">
         <v>17.472778000000002</v>
@@ -6124,7 +6124,7 @@
         <v>295</v>
       </c>
       <c r="B294" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C294" s="2">
         <v>17.216944000000002</v>
@@ -6138,7 +6138,7 @@
         <v>296</v>
       </c>
       <c r="B295" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C295" s="2">
         <v>15.417778</v>
@@ -6152,7 +6152,7 @@
         <v>297</v>
       </c>
       <c r="B296" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C296" s="2">
         <v>10.450556000000001</v>
@@ -6166,7 +6166,7 @@
         <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C297" s="2">
         <v>10.373333000000001</v>
@@ -6180,7 +6180,7 @@
         <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C298" s="2">
         <v>10.349722</v>
@@ -6194,7 +6194,7 @@
         <v>300</v>
       </c>
       <c r="B299" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C299" s="2">
         <v>10.438611</v>
@@ -6208,7 +6208,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C300" s="2">
         <v>10.411389</v>
@@ -6222,7 +6222,7 @@
         <v>302</v>
       </c>
       <c r="B301" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C301" s="2">
         <v>10.266666000000001</v>
@@ -6236,7 +6236,7 @@
         <v>303</v>
       </c>
       <c r="B302" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C302" s="2">
         <v>10.345000000000001</v>
@@ -6250,7 +6250,7 @@
         <v>304</v>
       </c>
       <c r="B303" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C303" s="2">
         <v>10.523611000000001</v>
@@ -6264,7 +6264,7 @@
         <v>305</v>
       </c>
       <c r="B304" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C304" s="2">
         <v>10.861667000000001</v>
@@ -6278,7 +6278,7 @@
         <v>306</v>
       </c>
       <c r="B305" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C305" s="2">
         <v>10.583333</v>
@@ -6292,7 +6292,7 @@
         <v>307</v>
       </c>
       <c r="B306" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C306" s="2">
         <v>10.468332999999999</v>
@@ -6306,7 +6306,7 @@
         <v>308</v>
       </c>
       <c r="B307" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C307" s="2">
         <v>10.508333</v>
@@ -6320,7 +6320,7 @@
         <v>309</v>
       </c>
       <c r="B308" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C308" s="2">
         <v>10.2722225</v>
@@ -6334,7 +6334,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C309" s="2">
         <v>10.506667</v>
@@ -6348,7 +6348,7 @@
         <v>311</v>
       </c>
       <c r="B310" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C310" s="2">
         <v>10.556666999999999</v>
@@ -6362,7 +6362,7 @@
         <v>312</v>
       </c>
       <c r="B311" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C311" s="2">
         <v>10.954722</v>
@@ -6376,7 +6376,7 @@
         <v>313</v>
       </c>
       <c r="B312" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C312" s="2">
         <v>10.769444</v>
@@ -6390,7 +6390,7 @@
         <v>314</v>
       </c>
       <c r="B313" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C313" s="2">
         <v>10.664166</v>
@@ -6404,7 +6404,7 @@
         <v>315</v>
       </c>
       <c r="B314" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C314" s="2">
         <v>10.632222000000001</v>
@@ -6418,7 +6418,7 @@
         <v>316</v>
       </c>
       <c r="B315" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C315" s="2">
         <v>10.870277</v>
@@ -6432,7 +6432,7 @@
         <v>317</v>
       </c>
       <c r="B316" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C316" s="2">
         <v>10.095278</v>
@@ -6446,7 +6446,7 @@
         <v>318</v>
       </c>
       <c r="B317" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C317" s="2">
         <v>10.268056</v>
@@ -6460,7 +6460,7 @@
         <v>319</v>
       </c>
       <c r="B318" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C318" s="2">
         <v>10.2325</v>
@@ -6474,7 +6474,7 @@
         <v>320</v>
       </c>
       <c r="B319" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C319" s="2">
         <v>10.093889000000001</v>
@@ -6488,7 +6488,7 @@
         <v>321</v>
       </c>
       <c r="B320" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C320" s="2">
         <v>10.110833</v>
@@ -6502,7 +6502,7 @@
         <v>322</v>
       </c>
       <c r="B321" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C321" s="2">
         <v>10.672777999999999</v>
@@ -6516,7 +6516,7 @@
         <v>323</v>
       </c>
       <c r="B322" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C322" s="2">
         <v>10.523332999999999</v>
@@ -6530,7 +6530,7 @@
         <v>324</v>
       </c>
       <c r="B323" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C323" s="2">
         <v>10.806945000000001</v>
@@ -6544,7 +6544,7 @@
         <v>325</v>
       </c>
       <c r="B324" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C324" s="2">
         <v>10.118055</v>
@@ -6558,7 +6558,7 @@
         <v>326</v>
       </c>
       <c r="B325" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C325" s="2">
         <v>10.811944</v>
@@ -6572,7 +6572,7 @@
         <v>327</v>
       </c>
       <c r="B326" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C326" s="2">
         <v>10.880834</v>
@@ -6586,7 +6586,7 @@
         <v>328</v>
       </c>
       <c r="B327" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C327" s="2">
         <v>10.298056000000001</v>
@@ -6600,7 +6600,7 @@
         <v>329</v>
       </c>
       <c r="B328" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C328" s="2">
         <v>10.820278</v>
@@ -6614,7 +6614,7 @@
         <v>330</v>
       </c>
       <c r="B329" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C329" s="2">
         <v>10.744166</v>
@@ -6628,7 +6628,7 @@
         <v>331</v>
       </c>
       <c r="B330" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C330" s="2">
         <v>10.905277999999999</v>
@@ -6642,7 +6642,7 @@
         <v>332</v>
       </c>
       <c r="B331" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C331" s="2">
         <v>10.6</v>
@@ -6656,7 +6656,7 @@
         <v>333</v>
       </c>
       <c r="B332" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C332" s="2">
         <v>10.966388999999999</v>
@@ -6670,7 +6670,7 @@
         <v>334</v>
       </c>
       <c r="B333" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C333" s="2">
         <v>10.882222000000001</v>
@@ -6684,7 +6684,7 @@
         <v>335</v>
       </c>
       <c r="B334" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C334" s="2">
         <v>10.750556</v>
@@ -6698,7 +6698,7 @@
         <v>336</v>
       </c>
       <c r="B335" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C335" s="2">
         <v>10.810555000000001</v>
@@ -6712,7 +6712,7 @@
         <v>337</v>
       </c>
       <c r="B336" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C336" s="2">
         <v>10.93</v>
@@ -6726,7 +6726,7 @@
         <v>338</v>
       </c>
       <c r="B337" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C337" s="2">
         <v>10.7</v>
@@ -6740,7 +6740,7 @@
         <v>339</v>
       </c>
       <c r="B338" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C338" s="2">
         <v>10.562222500000001</v>
@@ -6754,7 +6754,7 @@
         <v>340</v>
       </c>
       <c r="B339" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C339" s="2">
         <v>10.517222</v>
@@ -6768,7 +6768,7 @@
         <v>341</v>
       </c>
       <c r="B340" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C340" s="2">
         <v>10.263056000000001</v>
@@ -6782,7 +6782,7 @@
         <v>342</v>
       </c>
       <c r="B341" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C341" s="2">
         <v>10.446667</v>
@@ -6796,7 +6796,7 @@
         <v>343</v>
       </c>
       <c r="B342" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C342" s="2">
         <v>10.346666000000001</v>
@@ -6810,7 +6810,7 @@
         <v>344</v>
       </c>
       <c r="B343" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C343" s="2">
         <v>10.287222</v>
@@ -6824,7 +6824,7 @@
         <v>345</v>
       </c>
       <c r="B344" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C344" s="2">
         <v>10.618333</v>
@@ -6838,7 +6838,7 @@
         <v>346</v>
       </c>
       <c r="B345" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C345" s="2">
         <v>10.36</v>
@@ -6852,7 +6852,7 @@
         <v>347</v>
       </c>
       <c r="B346" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C346" s="2">
         <v>10.176111000000001</v>
@@ -6866,7 +6866,7 @@
         <v>348</v>
       </c>
       <c r="B347" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C347" s="2">
         <v>10.028333999999999</v>
@@ -6880,7 +6880,7 @@
         <v>349</v>
       </c>
       <c r="B348" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C348" s="2">
         <v>10.37</v>
@@ -6894,7 +6894,7 @@
         <v>350</v>
       </c>
       <c r="B349" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C349" s="2">
         <v>10.398334</v>
@@ -6908,7 +6908,7 @@
         <v>351</v>
       </c>
       <c r="B350" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C350" s="2">
         <v>10.442778000000001</v>
@@ -6922,7 +6922,7 @@
         <v>352</v>
       </c>
       <c r="B351" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C351" s="2">
         <v>10.285277000000001</v>
@@ -6936,7 +6936,7 @@
         <v>353</v>
       </c>
       <c r="B352" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C352" s="2">
         <v>10.379443999999999</v>
@@ -6950,7 +6950,7 @@
         <v>354</v>
       </c>
       <c r="B353" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C353" s="2">
         <v>10.46</v>
@@ -6964,7 +6964,7 @@
         <v>355</v>
       </c>
       <c r="B354" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C354" s="2">
         <v>10.085278000000001</v>
@@ -6978,7 +6978,7 @@
         <v>356</v>
       </c>
       <c r="B355" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C355" s="2">
         <v>9.9616670000000003</v>
@@ -6992,7 +6992,7 @@
         <v>357</v>
       </c>
       <c r="B356" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C356" s="2">
         <v>10.369721999999999</v>
@@ -7006,7 +7006,7 @@
         <v>358</v>
       </c>
       <c r="B357" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C357" s="2">
         <v>10.140555000000001</v>
@@ -7020,7 +7020,7 @@
         <v>359</v>
       </c>
       <c r="B358" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C358" s="2">
         <v>10.255000000000001</v>
@@ -7034,7 +7034,7 @@
         <v>360</v>
       </c>
       <c r="B359" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C359" s="2">
         <v>10.261388999999999</v>
@@ -7048,7 +7048,7 @@
         <v>361</v>
       </c>
       <c r="B360" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C360" s="2">
         <v>10.520833</v>
@@ -7062,7 +7062,7 @@
         <v>362</v>
       </c>
       <c r="B361" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C361" s="2">
         <v>10.205833</v>
@@ -7076,7 +7076,7 @@
         <v>363</v>
       </c>
       <c r="B362" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C362" s="2">
         <v>10.528333999999999</v>
@@ -7090,7 +7090,7 @@
         <v>364</v>
       </c>
       <c r="B363" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C363" s="2">
         <v>10.435555000000001</v>
@@ -7104,7 +7104,7 @@
         <v>365</v>
       </c>
       <c r="B364" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C364" s="2">
         <v>10.715555</v>
@@ -7118,7 +7118,7 @@
         <v>366</v>
       </c>
       <c r="B365" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C365" s="2">
         <v>10.834444</v>
@@ -7132,7 +7132,7 @@
         <v>367</v>
       </c>
       <c r="B366" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C366" s="2">
         <v>10.713889</v>
@@ -7146,7 +7146,7 @@
         <v>368</v>
       </c>
       <c r="B367" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C367" s="2">
         <v>10.952500000000001</v>
@@ -7160,7 +7160,7 @@
         <v>369</v>
       </c>
       <c r="B368" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C368" s="2">
         <v>10.973333</v>
@@ -7174,7 +7174,7 @@
         <v>370</v>
       </c>
       <c r="B369" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C369" s="2">
         <v>10.983889</v>
@@ -7188,7 +7188,7 @@
         <v>371</v>
       </c>
       <c r="B370" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C370" s="2">
         <v>10.690556000000001</v>
@@ -7202,7 +7202,7 @@
         <v>372</v>
       </c>
       <c r="B371" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C371" s="2">
         <v>10.711667</v>
@@ -7216,7 +7216,7 @@
         <v>373</v>
       </c>
       <c r="B372" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C372" s="2">
         <v>10.919444</v>
@@ -7230,7 +7230,7 @@
         <v>374</v>
       </c>
       <c r="B373" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C373" s="2">
         <v>10.585000000000001</v>
@@ -7244,7 +7244,7 @@
         <v>375</v>
       </c>
       <c r="B374" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C374" s="2">
         <v>10.805555</v>
@@ -7258,7 +7258,7 @@
         <v>376</v>
       </c>
       <c r="B375" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C375" s="2">
         <v>10.888056000000001</v>
@@ -7272,7 +7272,7 @@
         <v>377</v>
       </c>
       <c r="B376" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C376" s="2">
         <v>10.8538885</v>
@@ -7286,7 +7286,7 @@
         <v>378</v>
       </c>
       <c r="B377" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C377" s="2">
         <v>10.475277999999999</v>
@@ -7300,7 +7300,7 @@
         <v>379</v>
       </c>
       <c r="B378" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C378" s="2">
         <v>10.362223</v>
@@ -7314,7 +7314,7 @@
         <v>380</v>
       </c>
       <c r="B379" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C379" s="2">
         <v>10.508333</v>
@@ -7328,7 +7328,7 @@
         <v>381</v>
       </c>
       <c r="B380" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C380" s="2">
         <v>10.494999999999999</v>
@@ -7342,7 +7342,7 @@
         <v>382</v>
       </c>
       <c r="B381" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C381" s="2">
         <v>10.326667</v>
@@ -7356,7 +7356,7 @@
         <v>383</v>
       </c>
       <c r="B382" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C382" s="2">
         <v>10.336945</v>
@@ -7370,7 +7370,7 @@
         <v>384</v>
       </c>
       <c r="B383" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C383" s="2">
         <v>10.431111</v>
@@ -7384,7 +7384,7 @@
         <v>385</v>
       </c>
       <c r="B384" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C384" s="2">
         <v>11.030832999999999</v>
@@ -7398,7 +7398,7 @@
         <v>386</v>
       </c>
       <c r="B385" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C385" s="2">
         <v>10.601497999999999</v>
@@ -7412,7 +7412,7 @@
         <v>387</v>
       </c>
       <c r="B386" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C386" s="2">
         <v>10.543858</v>
@@ -7426,7 +7426,7 @@
         <v>388</v>
       </c>
       <c r="B387" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C387" s="2">
         <v>10.347025</v>
@@ -7440,7 +7440,7 @@
         <v>389</v>
       </c>
       <c r="B388" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C388" s="2">
         <v>10.3477</v>
@@ -7454,7 +7454,7 @@
         <v>390</v>
       </c>
       <c r="B389" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C389" s="2">
         <v>10.372127000000001</v>
@@ -7468,7 +7468,7 @@
         <v>391</v>
       </c>
       <c r="B390" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C390" s="2">
         <v>10.513725000000001</v>
@@ -7482,7 +7482,7 @@
         <v>392</v>
       </c>
       <c r="B391" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C391" s="2">
         <v>10.495998</v>
@@ -7496,7 +7496,7 @@
         <v>393</v>
       </c>
       <c r="B392" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C392" s="2">
         <v>10.678933000000001</v>
@@ -7510,7 +7510,7 @@
         <v>394</v>
       </c>
       <c r="B393" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C393" s="2">
         <v>10.559167</v>
@@ -7524,7 +7524,7 @@
         <v>395</v>
       </c>
       <c r="B394" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C394" s="2">
         <v>10.795515</v>
@@ -7538,7 +7538,7 @@
         <v>396</v>
       </c>
       <c r="B395" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C395" s="2">
         <v>10.400459</v>
@@ -7552,7 +7552,7 @@
         <v>397</v>
       </c>
       <c r="B396" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C396" s="2">
         <v>10.283915</v>
@@ -7566,7 +7566,7 @@
         <v>398</v>
       </c>
       <c r="B397" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C397" s="2">
         <v>10.276297</v>
@@ -7580,7 +7580,7 @@
         <v>399</v>
       </c>
       <c r="B398" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C398" s="2">
         <v>10.2057</v>
@@ -7594,7 +7594,7 @@
         <v>400</v>
       </c>
       <c r="B399" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C399" s="2">
         <v>10.067033</v>
@@ -7608,7 +7608,7 @@
         <v>401</v>
       </c>
       <c r="B400" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C400" s="2">
         <v>9.955368</v>
@@ -7622,7 +7622,7 @@
         <v>402</v>
       </c>
       <c r="B401" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C401" s="2">
         <v>10.186636</v>
@@ -7636,7 +7636,7 @@
         <v>403</v>
       </c>
       <c r="B402" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C402" s="2">
         <v>10.767208999999999</v>
@@ -7650,7 +7650,7 @@
         <v>404</v>
       </c>
       <c r="B403" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C403" s="2">
         <v>10.948653</v>
@@ -7664,7 +7664,7 @@
         <v>405</v>
       </c>
       <c r="B404" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C404" s="2">
         <v>10.606294</v>
@@ -7678,7 +7678,7 @@
         <v>406</v>
       </c>
       <c r="B405" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C405" s="2">
         <v>10.682</v>
@@ -7692,7 +7692,7 @@
         <v>407</v>
       </c>
       <c r="B406" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C406" s="2">
         <v>10.613011</v>
@@ -7706,7 +7706,7 @@
         <v>408</v>
       </c>
       <c r="B407" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C407" s="2">
         <v>10.444449000000001</v>
@@ -7720,7 +7720,7 @@
         <v>409</v>
       </c>
       <c r="B408" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C408" s="2">
         <v>10.593745</v>
@@ -7734,7 +7734,7 @@
         <v>410</v>
       </c>
       <c r="B409" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C409" s="2">
         <v>10.669534000000001</v>
@@ -7748,7 +7748,7 @@
         <v>411</v>
       </c>
       <c r="B410" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C410" s="2">
         <v>10.528995</v>
@@ -7762,7 +7762,7 @@
         <v>412</v>
       </c>
       <c r="B411" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C411" s="2">
         <v>10.907586</v>
@@ -7776,7 +7776,7 @@
         <v>413</v>
       </c>
       <c r="B412" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C412" s="2">
         <v>10.823823000000001</v>
@@ -7790,7 +7790,7 @@
         <v>414</v>
       </c>
       <c r="B413" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C413" s="2">
         <v>10.754792999999999</v>
@@ -7804,7 +7804,7 @@
         <v>415</v>
       </c>
       <c r="B414" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C414" s="2">
         <v>10.251999</v>
@@ -7818,7 +7818,7 @@
         <v>416</v>
       </c>
       <c r="B415" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C415" s="2">
         <v>10.239383</v>
@@ -7832,7 +7832,7 @@
         <v>417</v>
       </c>
       <c r="B416" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C416" s="2">
         <v>10.166591</v>
@@ -7846,7 +7846,7 @@
         <v>418</v>
       </c>
       <c r="B417" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C417" s="2">
         <v>10.042253000000001</v>
@@ -7860,7 +7860,7 @@
         <v>419</v>
       </c>
       <c r="B418" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C418" s="2">
         <v>10.199138</v>
@@ -7874,7 +7874,7 @@
         <v>420</v>
       </c>
       <c r="B419" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C419" s="2">
         <v>10.343299999999999</v>
@@ -7888,7 +7888,7 @@
         <v>421</v>
       </c>
       <c r="B420" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C420" s="2">
         <v>10.11346</v>
@@ -7902,7 +7902,7 @@
         <v>422</v>
       </c>
       <c r="B421" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C421" s="2">
         <v>9.9067430000000005</v>
@@ -7916,7 +7916,7 @@
         <v>423</v>
       </c>
       <c r="B422" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C422" s="2">
         <v>10.636041000000001</v>
@@ -7930,7 +7930,7 @@
         <v>424</v>
       </c>
       <c r="B423" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C423" s="2">
         <v>10.727600000000001</v>
@@ -7944,7 +7944,7 @@
         <v>425</v>
       </c>
       <c r="B424" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C424" s="2">
         <v>10.580235999999999</v>
@@ -7958,7 +7958,7 @@
         <v>426</v>
       </c>
       <c r="B425" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C425" s="2">
         <v>10.52238</v>
@@ -7972,7 +7972,7 @@
         <v>427</v>
       </c>
       <c r="B426" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C426" s="2">
         <v>10.450200000000001</v>
@@ -7986,7 +7986,7 @@
         <v>428</v>
       </c>
       <c r="B427" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C427" s="2">
         <v>10.442731</v>
@@ -8000,7 +8000,7 @@
         <v>429</v>
       </c>
       <c r="B428" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C428" s="2">
         <v>14.668917</v>
@@ -8014,7 +8014,7 @@
         <v>430</v>
       </c>
       <c r="B429" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C429" s="2">
         <v>14.871499999999999</v>
@@ -8028,7 +8028,7 @@
         <v>431</v>
       </c>
       <c r="B430" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C430" s="2">
         <v>14.153283</v>
@@ -8042,7 +8042,7 @@
         <v>432</v>
       </c>
       <c r="B431" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C431" s="2">
         <v>14.657527999999999</v>
@@ -8056,7 +8056,7 @@
         <v>433</v>
       </c>
       <c r="B432" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C432" s="2">
         <v>14.659167</v>
@@ -8070,7 +8070,7 @@
         <v>434</v>
       </c>
       <c r="B433" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C433" s="2">
         <v>14.469792</v>
@@ -8084,7 +8084,7 @@
         <v>435</v>
       </c>
       <c r="B434" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C434" s="2">
         <v>14.032583000000001</v>
@@ -8098,7 +8098,7 @@
         <v>436</v>
       </c>
       <c r="B435" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C435" s="2">
         <v>12.541528</v>
@@ -8112,7 +8112,7 @@
         <v>437</v>
       </c>
       <c r="B436" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C436" s="2">
         <v>12.643860999999999</v>
@@ -8126,7 +8126,7 @@
         <v>438</v>
       </c>
       <c r="B437" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C437" s="2">
         <v>12.771694</v>
@@ -8140,7 +8140,7 @@
         <v>439</v>
       </c>
       <c r="B438" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C438" s="2">
         <v>12.181749999999999</v>
@@ -8154,7 +8154,7 @@
         <v>440</v>
       </c>
       <c r="B439" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C439" s="2">
         <v>12.820221999999999</v>
@@ -8168,7 +8168,7 @@
         <v>441</v>
       </c>
       <c r="B440" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C440" s="2">
         <v>12.171906999999999</v>
@@ -8182,7 +8182,7 @@
         <v>442</v>
       </c>
       <c r="B441" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C441" s="2">
         <v>12.617278000000001</v>
@@ -8196,7 +8196,7 @@
         <v>443</v>
       </c>
       <c r="B442" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C442" s="2">
         <v>14.571944</v>
@@ -8210,7 +8210,7 @@
         <v>444</v>
       </c>
       <c r="B443" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C443" s="2">
         <v>13.916667</v>
@@ -8224,7 +8224,7 @@
         <v>445</v>
       </c>
       <c r="B444" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C444" s="2">
         <v>14.111943999999999</v>
@@ -8238,7 +8238,7 @@
         <v>446</v>
       </c>
       <c r="B445" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C445" s="2">
         <v>14.435945</v>
@@ -8252,7 +8252,7 @@
         <v>447</v>
       </c>
       <c r="B446" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C446" s="2">
         <v>13.0525</v>
@@ -8266,7 +8266,7 @@
         <v>448</v>
       </c>
       <c r="B447" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C447" s="2">
         <v>13.371388</v>
@@ -8280,7 +8280,7 @@
         <v>449</v>
       </c>
       <c r="B448" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C448" s="2">
         <v>13.059722000000001</v>
@@ -8294,7 +8294,7 @@
         <v>450</v>
       </c>
       <c r="B449" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C449" s="2">
         <v>12.817583000000001</v>
@@ -8308,7 +8308,7 @@
         <v>451</v>
       </c>
       <c r="B450" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C450" s="2">
         <v>12.537222</v>
@@ -8322,7 +8322,7 @@
         <v>452</v>
       </c>
       <c r="B451" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C451" s="2">
         <v>12.284166000000001</v>
@@ -8336,7 +8336,7 @@
         <v>453</v>
       </c>
       <c r="B452" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C452" s="2">
         <v>12.265000000000001</v>
@@ -8350,7 +8350,7 @@
         <v>454</v>
       </c>
       <c r="B453" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C453" s="2">
         <v>11.784722</v>
@@ -8364,7 +8364,7 @@
         <v>455</v>
       </c>
       <c r="B454" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C454" s="2">
         <v>11.570556</v>
@@ -8378,7 +8378,7 @@
         <v>456</v>
       </c>
       <c r="B455" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C455" s="2">
         <v>11.6027775</v>
@@ -8392,7 +8392,7 @@
         <v>457</v>
       </c>
       <c r="B456" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C456" s="2">
         <v>11.138332999999999</v>
@@ -8406,7 +8406,7 @@
         <v>458</v>
       </c>
       <c r="B457" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C457" s="2">
         <v>11.271388999999999</v>
@@ -8420,7 +8420,7 @@
         <v>459</v>
       </c>
       <c r="B458" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C458" s="2">
         <v>10.964722999999999</v>
@@ -8434,7 +8434,7 @@
         <v>460</v>
       </c>
       <c r="B459" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C459" s="2">
         <v>10.842499999999999</v>
@@ -8448,7 +8448,7 @@
         <v>461</v>
       </c>
       <c r="B460" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C460" s="2">
         <v>10.4</v>
@@ -8462,7 +8462,7 @@
         <v>462</v>
       </c>
       <c r="B461" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C461" s="2">
         <v>9.7713889999999992</v>
@@ -8476,7 +8476,7 @@
         <v>463</v>
       </c>
       <c r="B462" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C462" s="2">
         <v>9.8119440000000004</v>
@@ -8490,7 +8490,7 @@
         <v>464</v>
       </c>
       <c r="B463" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C463" s="2">
         <v>9.7761110000000002</v>
@@ -8504,7 +8504,7 @@
         <v>465</v>
       </c>
       <c r="B464" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C464" s="2">
         <v>10.279166999999999</v>
@@ -8518,7 +8518,7 @@
         <v>466</v>
       </c>
       <c r="B465" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C465" s="2">
         <v>10.2225</v>
@@ -8532,7 +8532,7 @@
         <v>467</v>
       </c>
       <c r="B466" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C466" s="2">
         <v>10.578611</v>
@@ -8546,7 +8546,7 @@
         <v>468</v>
       </c>
       <c r="B467" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C467" s="2">
         <v>10.274444000000001</v>
@@ -8560,7 +8560,7 @@
         <v>469</v>
       </c>
       <c r="B468" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C468" s="2">
         <v>21.35</v>
@@ -8574,7 +8574,7 @@
         <v>470</v>
       </c>
       <c r="B469" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C469" s="2">
         <v>22.966670000000001</v>
@@ -8588,7 +8588,7 @@
         <v>471</v>
       </c>
       <c r="B470" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C470" s="2">
         <v>22.65</v>
@@ -8602,7 +8602,7 @@
         <v>472</v>
       </c>
       <c r="B471" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C471" s="2">
         <v>22.1</v>
@@ -8616,7 +8616,7 @@
         <v>473</v>
       </c>
       <c r="B472" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C472" s="2">
         <v>21.845600000000001</v>
@@ -8630,7 +8630,7 @@
         <v>474</v>
       </c>
       <c r="B473" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C473" s="2">
         <v>21.523330000000001</v>
@@ -8644,7 +8644,7 @@
         <v>475</v>
       </c>
       <c r="B474" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C474" s="2">
         <v>21.48583</v>
@@ -8658,7 +8658,7 @@
         <v>476</v>
       </c>
       <c r="B475" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C475" s="2">
         <v>21.058060000000001</v>
@@ -8672,7 +8672,7 @@
         <v>477</v>
       </c>
       <c r="B476" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C476" s="2">
         <v>21.023060000000001</v>
@@ -8686,7 +8686,7 @@
         <v>478</v>
       </c>
       <c r="B477" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C477" s="2">
         <v>21.448329999999999</v>
@@ -8700,7 +8700,7 @@
         <v>479</v>
       </c>
       <c r="B478" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C478" s="2">
         <v>21.36722</v>
@@ -8714,7 +8714,7 @@
         <v>480</v>
       </c>
       <c r="B479" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C479" s="2">
         <v>21.345559999999999</v>
@@ -8728,7 +8728,7 @@
         <v>481</v>
       </c>
       <c r="B480" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C480" s="2">
         <v>21.29889</v>
@@ -8742,7 +8742,7 @@
         <v>482</v>
       </c>
       <c r="B481" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C481" s="2">
         <v>21.283329999999999</v>
@@ -8756,7 +8756,7 @@
         <v>484</v>
       </c>
       <c r="B482" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C482" s="2">
         <v>21.071110000000001</v>
@@ -8770,7 +8770,7 @@
         <v>485</v>
       </c>
       <c r="B483" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C483" s="2">
         <v>21.071110000000001</v>
@@ -8784,7 +8784,7 @@
         <v>486</v>
       </c>
       <c r="B484" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C484" s="2">
         <v>20.886109999999999</v>
@@ -8798,7 +8798,7 @@
         <v>487</v>
       </c>
       <c r="B485" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C485" s="2">
         <v>20.933330000000002</v>
@@ -8812,7 +8812,7 @@
         <v>488</v>
       </c>
       <c r="B486" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C486" s="2">
         <v>20.766670000000001</v>
@@ -8826,7 +8826,7 @@
         <v>489</v>
       </c>
       <c r="B487" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C487" s="2">
         <v>20.83333</v>
@@ -8840,7 +8840,7 @@
         <v>490</v>
       </c>
       <c r="B488" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C488" s="2">
         <v>20.81833</v>
@@ -8854,7 +8854,7 @@
         <v>491</v>
       </c>
       <c r="B489" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C489" s="2">
         <v>20.752220000000001</v>
@@ -8868,7 +8868,7 @@
         <v>492</v>
       </c>
       <c r="B490" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C490" s="2">
         <v>20.733329999999999</v>
@@ -8882,7 +8882,7 @@
         <v>493</v>
       </c>
       <c r="B491" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C491" s="2">
         <v>20.720829999999999</v>
@@ -8896,7 +8896,7 @@
         <v>494</v>
       </c>
       <c r="B492" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C492" s="2">
         <v>20.683330000000002</v>
@@ -8910,7 +8910,7 @@
         <v>495</v>
       </c>
       <c r="B493" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C493" s="2">
         <v>20.880555999999999</v>
@@ -8924,7 +8924,7 @@
         <v>496</v>
       </c>
       <c r="B494" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C494" s="2">
         <v>21.497800000000002</v>
@@ -8938,7 +8938,7 @@
         <v>497</v>
       </c>
       <c r="B495" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C495" s="2">
         <v>21.075077</v>
@@ -8952,7 +8952,7 @@
         <v>498</v>
       </c>
       <c r="B496" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C496" s="2">
         <v>21.261275999999999</v>
@@ -8966,7 +8966,7 @@
         <v>499</v>
       </c>
       <c r="B497" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C497" s="2">
         <v>21.124172000000002</v>
@@ -8980,7 +8980,7 @@
         <v>500</v>
       </c>
       <c r="B498" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C498" s="2">
         <v>22.206398</v>
@@ -8994,7 +8994,7 @@
         <v>501</v>
       </c>
       <c r="B499" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C499" s="2">
         <v>21.261265000000002</v>
@@ -9008,7 +9008,7 @@
         <v>502</v>
       </c>
       <c r="B500" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C500" s="2">
         <v>7.7833332999999998</v>
@@ -9022,7 +9022,7 @@
         <v>503</v>
       </c>
       <c r="B501" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C501" s="2">
         <v>21.200188000000001</v>
@@ -9036,7 +9036,7 @@
         <v>504</v>
       </c>
       <c r="B502" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C502" s="2">
         <v>16.166</v>
@@ -9050,7 +9050,7 @@
         <v>505</v>
       </c>
       <c r="B503" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C503" s="2">
         <v>16.547999999999998</v>
@@ -9064,7 +9064,7 @@
         <v>506</v>
       </c>
       <c r="B504" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C504" s="2">
         <v>16.545000000000002</v>
@@ -9078,7 +9078,7 @@
         <v>507</v>
       </c>
       <c r="B505" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C505" s="2">
         <v>16.358000000000001</v>
@@ -9092,7 +9092,7 @@
         <v>508</v>
       </c>
       <c r="B506" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C506" s="2">
         <v>16.286999999999999</v>
@@ -9106,7 +9106,7 @@
         <v>509</v>
       </c>
       <c r="B507" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C507" s="2">
         <v>16.527999999999999</v>
@@ -9120,7 +9120,7 @@
         <v>510</v>
       </c>
       <c r="B508" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C508" s="2">
         <v>16.542000000000002</v>
@@ -9134,7 +9134,7 @@
         <v>511</v>
       </c>
       <c r="B509" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C509" s="2">
         <v>10.01239</v>
@@ -9148,7 +9148,7 @@
         <v>512</v>
       </c>
       <c r="B510" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C510" s="2">
         <v>10.416627999999999</v>
@@ -9162,7 +9162,7 @@
         <v>513</v>
       </c>
       <c r="B511" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C511" s="2">
         <v>10.657646</v>
@@ -9176,7 +9176,7 @@
         <v>514</v>
       </c>
       <c r="B512" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C512" s="2">
         <v>18.505089999999999</v>
@@ -9190,7 +9190,7 @@
         <v>515</v>
       </c>
       <c r="B513" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C513" s="2">
         <v>10.392213</v>
@@ -9204,7 +9204,7 @@
         <v>516</v>
       </c>
       <c r="B514" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C514" s="2">
         <v>10.607352000000001</v>
@@ -9218,7 +9218,7 @@
         <v>517</v>
       </c>
       <c r="B515" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C515" s="2">
         <v>10.603277</v>
@@ -9232,7 +9232,7 @@
         <v>518</v>
       </c>
       <c r="B516" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C516" s="2">
         <v>10.385597000000001</v>
@@ -9246,7 +9246,7 @@
         <v>519</v>
       </c>
       <c r="B517" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C517" s="2">
         <v>18.37433</v>
@@ -9260,7 +9260,7 @@
         <v>520</v>
       </c>
       <c r="B518" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C518" s="2">
         <v>18.214089999999999</v>
@@ -9274,7 +9274,7 @@
         <v>521</v>
       </c>
       <c r="B519" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C519" s="2">
         <v>20.130389999999998</v>
@@ -9288,7 +9288,7 @@
         <v>522</v>
       </c>
       <c r="B520" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C520" s="2">
         <v>18.268719999999998</v>
@@ -9302,7 +9302,7 @@
         <v>523</v>
       </c>
       <c r="B521" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C521" s="2">
         <v>18.903880000000001</v>
@@ -9316,7 +9316,7 @@
         <v>524</v>
       </c>
       <c r="B522" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C522" s="2">
         <v>18.696079999999998</v>
@@ -9330,7 +9330,7 @@
         <v>525</v>
       </c>
       <c r="B523" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C523" s="2">
         <v>19.899159999999998</v>
@@ -9344,7 +9344,7 @@
         <v>526</v>
       </c>
       <c r="B524" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C524" s="2">
         <v>18.73255</v>
@@ -9358,7 +9358,7 @@
         <v>527</v>
       </c>
       <c r="B525" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C525" s="2">
         <v>18.527149999999999</v>
@@ -9372,7 +9372,7 @@
         <v>528</v>
       </c>
       <c r="B526" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C526" s="2">
         <v>18.527049999999999</v>
@@ -9386,7 +9386,7 @@
         <v>529</v>
       </c>
       <c r="B527" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C527" s="2">
         <v>19.630230000000001</v>
@@ -9400,7 +9400,7 @@
         <v>530</v>
       </c>
       <c r="B528" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C528" s="2">
         <v>19.98028</v>
@@ -9414,7 +9414,7 @@
         <v>531</v>
       </c>
       <c r="B529" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C529" s="2">
         <v>19.265599999999999</v>
@@ -9428,7 +9428,7 @@
         <v>532</v>
       </c>
       <c r="B530" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C530" s="2">
         <v>19.877749999999999</v>
@@ -9442,7 +9442,7 @@
         <v>533</v>
       </c>
       <c r="B531" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C531" s="2">
         <v>19.769400000000001</v>
@@ -9456,7 +9456,7 @@
         <v>534</v>
       </c>
       <c r="B532" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C532" s="2">
         <v>19.979900000000001</v>
@@ -9470,7 +9470,7 @@
         <v>535</v>
       </c>
       <c r="B533" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C533" s="2">
         <v>10.096294</v>
@@ -9484,7 +9484,7 @@
         <v>536</v>
       </c>
       <c r="B534" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C534" s="2">
         <v>10.659625</v>
@@ -9498,7 +9498,7 @@
         <v>537</v>
       </c>
       <c r="B535" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C535" s="2">
         <v>10.436450000000001</v>
@@ -9512,7 +9512,7 @@
         <v>538</v>
       </c>
       <c r="B536" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C536" s="2">
         <v>10.551588000000001</v>
@@ -9526,7 +9526,7 @@
         <v>539</v>
       </c>
       <c r="B537" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C537" s="2">
         <v>10.638415999999999</v>
